--- a/Tablas_LIQ19.xlsx
+++ b/Tablas_LIQ19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="15094" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="15094"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="297">
   <si>
     <t>cortescaja</t>
   </si>
@@ -913,6 +913,9 @@
   </si>
   <si>
     <t>F_CORTE_CAJA</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1531,8 +1534,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:X37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2163,6 +2166,9 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>296</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
@@ -2243,6 +2249,9 @@
       <c r="F16" s="8">
         <v>0</v>
       </c>
+      <c r="H16" t="s">
+        <v>296</v>
+      </c>
       <c r="K16" s="3" t="s">
         <v>54</v>
       </c>
@@ -2505,6 +2514,9 @@
       </c>
     </row>
     <row r="26" spans="5:24" x14ac:dyDescent="0.4">
+      <c r="E26" t="s">
+        <v>296</v>
+      </c>
       <c r="K26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2655,8 +2667,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Tablas_LIQ19.xlsx
+++ b/Tablas_LIQ19.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="15094"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32910" windowHeight="15090" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tablas" sheetId="1" r:id="rId1"/>
+    <sheet name="Tablas_Anteriores" sheetId="1" r:id="rId1"/>
     <sheet name="Nuevas Tablas" sheetId="4" r:id="rId2"/>
+    <sheet name="Tablas" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="341">
   <si>
     <t>cortescaja</t>
   </si>
@@ -624,9 +625,6 @@
     <t>L_PRELIQUIDACION</t>
   </si>
   <si>
-    <t>F_PRELIQUIDACION</t>
-  </si>
-  <si>
     <t>DATETIME</t>
   </si>
   <si>
@@ -916,13 +914,148 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>PRELIQUIDACIONES</t>
+  </si>
+  <si>
+    <t>LIQUIDACIONES</t>
+  </si>
+  <si>
+    <t>K_CHEQUES_CAJA</t>
+  </si>
+  <si>
+    <t>CORTE DE CAJA</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>K_PRODUCTO</t>
+  </si>
+  <si>
+    <t>D_PRODUCTO</t>
+  </si>
+  <si>
+    <t>S_PRODUCTO</t>
+  </si>
+  <si>
+    <t>O_PRODUCTO</t>
+  </si>
+  <si>
+    <t>C_PRODUCTO</t>
+  </si>
+  <si>
+    <t>L_PRODUCTO</t>
+  </si>
+  <si>
+    <t>VARCHAR 10</t>
+  </si>
+  <si>
+    <t>K_PRECIO</t>
+  </si>
+  <si>
+    <t>PRECIO</t>
+  </si>
+  <si>
+    <t>D_PRECIO</t>
+  </si>
+  <si>
+    <t>CLASE_PRODUCTO</t>
+  </si>
+  <si>
+    <t>K_CLASE_PRODUCTO</t>
+  </si>
+  <si>
+    <t>D_CLASE_PRODUCTO</t>
+  </si>
+  <si>
+    <t>S_CLASE_PRODUCTO</t>
+  </si>
+  <si>
+    <t>O_CLASE_PRODUCTO</t>
+  </si>
+  <si>
+    <t>C_CLASE_PRODUCTO</t>
+  </si>
+  <si>
+    <t>L_CLASE_PRODUCTO</t>
+  </si>
+  <si>
+    <t>TIPO_PRODUCTO</t>
+  </si>
+  <si>
+    <t>K_TIPO_PRODUCTO</t>
+  </si>
+  <si>
+    <t>D_TIPO_PRODUCTO</t>
+  </si>
+  <si>
+    <t>S_TIPO_PRODUCTO</t>
+  </si>
+  <si>
+    <t>O_TIPO_PRODUCTO</t>
+  </si>
+  <si>
+    <t>C_TIPO_PRODUCTO</t>
+  </si>
+  <si>
+    <t>L_TIPO_PRODUCTO</t>
+  </si>
+  <si>
+    <t>ESTATUS_PRODUCTO</t>
+  </si>
+  <si>
+    <t>K_ESTATUS_PRODUCTO</t>
+  </si>
+  <si>
+    <t>D_ESTATUS_PRODUCTO</t>
+  </si>
+  <si>
+    <t>S_ESTATUS_PRODUCTO</t>
+  </si>
+  <si>
+    <t>O_ESTATUS_PRODUCTO</t>
+  </si>
+  <si>
+    <t>C_ESTATUS_PRODUCTO</t>
+  </si>
+  <si>
+    <t>L_ESTATUS_PRODUCTO</t>
+  </si>
+  <si>
+    <t>RUTA</t>
+  </si>
+  <si>
+    <t>K_RUTA</t>
+  </si>
+  <si>
+    <t>D_RUTA</t>
+  </si>
+  <si>
+    <t>S_RUTA</t>
+  </si>
+  <si>
+    <t>O_RUTA</t>
+  </si>
+  <si>
+    <t>C_RUTA</t>
+  </si>
+  <si>
+    <t>L_RUTA</t>
+  </si>
+  <si>
+    <t>F_PRELIQUIDACION_INICIAL</t>
+  </si>
+  <si>
+    <t>F_PRELIQUIDACION_FINAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,8 +1109,42 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1012,8 +1179,95 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1185,13 +1439,275 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1237,6 +1753,72 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1249,9 +1831,68 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Énfasis4" xfId="3" builtinId="41"/>
+    <cellStyle name="Énfasis5" xfId="4" builtinId="45"/>
+    <cellStyle name="Énfasis6" xfId="5" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="2" builtinId="10"/>
   </cellStyles>
@@ -1534,66 +2175,66 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.3828125" customWidth="1"/>
-    <col min="2" max="2" width="17.15234375" customWidth="1"/>
-    <col min="3" max="3" width="15.765625" customWidth="1"/>
-    <col min="5" max="5" width="18.84375" customWidth="1"/>
-    <col min="6" max="6" width="21.69140625" customWidth="1"/>
-    <col min="8" max="8" width="19.921875" customWidth="1"/>
-    <col min="9" max="9" width="20.69140625" customWidth="1"/>
-    <col min="11" max="11" width="20.15234375" customWidth="1"/>
-    <col min="12" max="12" width="17.84375" customWidth="1"/>
-    <col min="14" max="14" width="18.07421875" customWidth="1"/>
-    <col min="15" max="15" width="19.23046875" customWidth="1"/>
-    <col min="17" max="17" width="18.53515625" customWidth="1"/>
-    <col min="18" max="18" width="20.61328125" customWidth="1"/>
-    <col min="20" max="20" width="19.07421875" customWidth="1"/>
-    <col min="21" max="21" width="18.53515625" customWidth="1"/>
-    <col min="23" max="23" width="18.61328125" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1"/>
+    <col min="3" max="3" width="15.73046875" customWidth="1"/>
+    <col min="5" max="5" width="18.86328125" customWidth="1"/>
+    <col min="6" max="6" width="21.73046875" customWidth="1"/>
+    <col min="8" max="8" width="19.86328125" customWidth="1"/>
+    <col min="9" max="9" width="20.73046875" customWidth="1"/>
+    <col min="11" max="11" width="20.1328125" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" customWidth="1"/>
+    <col min="14" max="14" width="18.1328125" customWidth="1"/>
+    <col min="15" max="15" width="19.265625" customWidth="1"/>
+    <col min="17" max="17" width="18.59765625" customWidth="1"/>
+    <col min="18" max="18" width="20.59765625" customWidth="1"/>
+    <col min="20" max="20" width="19.1328125" customWidth="1"/>
+    <col min="21" max="21" width="18.59765625" customWidth="1"/>
+    <col min="23" max="23" width="18.59765625" customWidth="1"/>
     <col min="24" max="24" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="76"/>
+      <c r="E1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="H1" s="21" t="s">
+      <c r="F1" s="76"/>
+      <c r="H1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="K1" s="21" t="s">
+      <c r="I1" s="76"/>
+      <c r="K1" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="N1" s="21" t="s">
+      <c r="L1" s="76"/>
+      <c r="N1" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="Q1" s="21" t="s">
+      <c r="O1" s="76"/>
+      <c r="Q1" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="T1" s="21" t="s">
+      <c r="R1" s="76"/>
+      <c r="T1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="W1" s="21" t="s">
+      <c r="U1" s="76"/>
+      <c r="W1" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="X1" s="22"/>
-    </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="X1" s="76"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1641,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1689,7 +2330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,7 +2378,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1785,7 +2426,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1833,7 +2474,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1881,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1977,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2025,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2073,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2121,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" s="2" t="s">
@@ -2165,10 +2806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>296</v>
-      </c>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.45">
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
@@ -2210,7 +2848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.45">
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2242,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.45">
       <c r="E16" s="3" t="s">
         <v>26</v>
       </c>
@@ -2250,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>54</v>
@@ -2277,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:24" x14ac:dyDescent="0.45">
       <c r="E17" s="2" t="s">
         <v>27</v>
       </c>
@@ -2309,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:24" x14ac:dyDescent="0.45">
       <c r="E18" s="3" t="s">
         <v>28</v>
       </c>
@@ -2339,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:24" x14ac:dyDescent="0.45">
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
@@ -2369,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:24" x14ac:dyDescent="0.45">
       <c r="E20" s="3" t="s">
         <v>30</v>
       </c>
@@ -2401,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:24" x14ac:dyDescent="0.45">
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
@@ -2433,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="5:24" x14ac:dyDescent="0.45">
       <c r="E22" s="3" t="s">
         <v>31</v>
       </c>
@@ -2459,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:24" x14ac:dyDescent="0.45">
       <c r="E23" s="2" t="s">
         <v>32</v>
       </c>
@@ -2472,6 +3110,9 @@
       <c r="L23" s="9">
         <v>83</v>
       </c>
+      <c r="N23" t="s">
+        <v>295</v>
+      </c>
       <c r="W23" s="2" t="s">
         <v>148</v>
       </c>
@@ -2479,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="5:24" x14ac:dyDescent="0.45">
       <c r="E24" s="3" t="s">
         <v>33</v>
       </c>
@@ -2492,6 +3133,9 @@
       <c r="L24" s="8">
         <v>82</v>
       </c>
+      <c r="Q24" t="s">
+        <v>295</v>
+      </c>
       <c r="W24" s="3" t="s">
         <v>149</v>
       </c>
@@ -2499,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:24" x14ac:dyDescent="0.45">
       <c r="K25" s="2" t="s">
         <v>62</v>
       </c>
@@ -2513,10 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:24" x14ac:dyDescent="0.4">
-      <c r="E26" t="s">
-        <v>296</v>
-      </c>
+    <row r="26" spans="5:24" x14ac:dyDescent="0.45">
       <c r="K26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2530,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="5:24" x14ac:dyDescent="0.45">
       <c r="K27" s="2" t="s">
         <v>64</v>
       </c>
@@ -2544,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="5:24" x14ac:dyDescent="0.45">
       <c r="K28" s="3" t="s">
         <v>65</v>
       </c>
@@ -2558,7 +3199,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="29" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="5:24" x14ac:dyDescent="0.45">
       <c r="K29" s="2" t="s">
         <v>66</v>
       </c>
@@ -2572,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="30" spans="5:24" x14ac:dyDescent="0.45">
       <c r="K30" s="3" t="s">
         <v>67</v>
       </c>
@@ -2586,7 +3227,7 @@
         <v>40822.501273148147</v>
       </c>
     </row>
-    <row r="31" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="5:24" x14ac:dyDescent="0.45">
       <c r="K31" s="2" t="s">
         <v>31</v>
       </c>
@@ -2600,7 +3241,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="5:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="5:24" x14ac:dyDescent="0.45">
       <c r="K32" s="3" t="s">
         <v>68</v>
       </c>
@@ -2608,13 +3249,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K33" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K34" s="3" t="s">
         <v>70</v>
       </c>
@@ -2622,7 +3263,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K35" s="2" t="s">
         <v>71</v>
       </c>
@@ -2630,7 +3271,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K36" s="3" t="s">
         <v>72</v>
       </c>
@@ -2638,7 +3279,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K37" s="2" t="s">
         <v>73</v>
       </c>
@@ -2665,53 +3306,53 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="B1:O67"/>
+  <dimension ref="B1:O89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="36.15234375" customWidth="1"/>
-    <col min="3" max="3" width="20.15234375" customWidth="1"/>
+    <col min="2" max="2" width="36.1328125" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="17.84375" customWidth="1"/>
-    <col min="7" max="7" width="3.84375" customWidth="1"/>
-    <col min="8" max="8" width="30.765625" customWidth="1"/>
-    <col min="9" max="9" width="20.15234375" customWidth="1"/>
-    <col min="10" max="10" width="4.3828125" customWidth="1"/>
-    <col min="11" max="11" width="17.15234375" customWidth="1"/>
-    <col min="12" max="12" width="17.921875" customWidth="1"/>
-    <col min="13" max="13" width="4.3828125" customWidth="1"/>
+    <col min="6" max="6" width="17.86328125" customWidth="1"/>
+    <col min="7" max="7" width="3.86328125" customWidth="1"/>
+    <col min="8" max="8" width="30.73046875" customWidth="1"/>
+    <col min="9" max="9" width="20.1328125" customWidth="1"/>
+    <col min="10" max="10" width="4.3984375" customWidth="1"/>
+    <col min="11" max="11" width="17.1328125" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" customWidth="1"/>
+    <col min="13" max="13" width="4.3984375" customWidth="1"/>
     <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.921875" customWidth="1"/>
+    <col min="15" max="15" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B1" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="E1" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="H1" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="I1" s="24"/>
-      <c r="K1" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="L1" s="24"/>
-      <c r="N1" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="O1" s="24"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C1" s="78"/>
+      <c r="E1" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="78"/>
+      <c r="H1" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" s="78"/>
+      <c r="K1" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="L1" s="78"/>
+      <c r="N1" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="O1" s="78"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" s="19" t="s">
         <v>188</v>
       </c>
@@ -2719,31 +3360,31 @@
         <v>189</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>202</v>
-      </c>
       <c r="I2" s="16" t="s">
         <v>189</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>189</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O2" s="16" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="15" t="s">
         <v>192</v>
       </c>
@@ -2757,25 +3398,25 @@
         <v>191</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>191</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>235</v>
+        <v>334</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="15" t="s">
         <v>193</v>
       </c>
@@ -2783,31 +3424,31 @@
         <v>194</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>194</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>194</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>236</v>
+        <v>335</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>194</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="15" t="s">
         <v>195</v>
       </c>
@@ -2815,31 +3456,31 @@
         <v>189</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>189</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>189</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>237</v>
+        <v>336</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>189</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" s="15" t="s">
         <v>196</v>
       </c>
@@ -2847,31 +3488,31 @@
         <v>197</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>197</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>197</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>238</v>
+        <v>337</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>197</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O6" s="13" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="15" t="s">
         <v>198</v>
       </c>
@@ -2879,641 +3520,3289 @@
         <v>189</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>189</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>189</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>239</v>
+        <v>338</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>197</v>
       </c>
       <c r="N7" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="98"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="13"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="97"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B33" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="O7" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="15" t="s">
+      <c r="C33" s="78"/>
+      <c r="E33" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="78"/>
+      <c r="H33" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="I33" s="78"/>
+      <c r="K33" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="L33" s="78"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B34" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B35" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B36" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B37" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B38" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B39" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B40" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="20" t="s">
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B41" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B42" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B43" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B44" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B45" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B48" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="78"/>
+      <c r="E48" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="F48" s="78"/>
+      <c r="H48" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="I48" s="78"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B49" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B50" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B51" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B52" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B53" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B54" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B55" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B56" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E57" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E58" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E59" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E60" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E61" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B64" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="C64" s="78"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B65" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B66" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B67" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B68" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B69" s="96"/>
+      <c r="C69" s="97"/>
+    </row>
+    <row r="71" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B72" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="C72" s="78"/>
+      <c r="E72" s="77" t="s">
+        <v>311</v>
+      </c>
+      <c r="F72" s="78"/>
+      <c r="H72" s="77" t="s">
+        <v>318</v>
+      </c>
+      <c r="I72" s="78"/>
+      <c r="K72" s="77" t="s">
+        <v>309</v>
+      </c>
+      <c r="L72" s="78"/>
+      <c r="N72" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="O72" s="78"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B73" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="N73" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="15" t="s">
+      <c r="O73" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B74" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N74" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="O74" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B75" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L75" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B22" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B32" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="E32" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="H32" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="I32" s="24"/>
-      <c r="K32" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B34" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" s="13" t="s">
+      <c r="N75" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="O75" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B76" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K76" s="15"/>
+      <c r="L76" s="13"/>
+      <c r="N76" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="O76" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B77" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="K77" s="15"/>
+      <c r="L77" s="13"/>
+      <c r="N77" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="O77" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B78" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K78" s="17"/>
+      <c r="L78" s="18"/>
+      <c r="N78" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="O78" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B79" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="13"/>
+      <c r="H79" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B80" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E83" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="F83" s="78"/>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E84" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E85" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="F85" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B36" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B37" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C37" s="13" t="s">
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E86" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E87" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E88" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F88" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B38" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B39" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B40" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B41" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B42" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B43" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B44" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B47" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="E47" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F47" s="24"/>
-      <c r="H47" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="I47" s="24"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B48" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E56" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E57" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E58" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E59" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E60" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C63" s="24"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B64" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B65" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B66" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B67" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>205</v>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E89" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="19">
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="H48:I48"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="H47:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="3" width="11.3984375" style="46"/>
+    <col min="4" max="4" width="11.59765625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="2.73046875" customWidth="1"/>
+    <col min="6" max="6" width="22.73046875" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" customWidth="1"/>
+    <col min="8" max="8" width="2.73046875" customWidth="1"/>
+    <col min="9" max="9" width="32.73046875" customWidth="1"/>
+    <col min="10" max="10" width="16.73046875" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" customWidth="1"/>
+    <col min="12" max="12" width="2.73046875" customWidth="1"/>
+    <col min="13" max="13" width="32.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.73046875" customWidth="1"/>
+    <col min="15" max="15" width="9.73046875" customWidth="1"/>
+    <col min="16" max="27" width="11.3984375" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E1" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="81"/>
+    </row>
+    <row r="2" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="33"/>
+      <c r="F2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="87"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="N2" s="87"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E3" s="36"/>
+      <c r="F3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E4" s="38"/>
+      <c r="F4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E5" s="38"/>
+      <c r="F5" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O5" s="35"/>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E6" s="38"/>
+      <c r="F6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O6" s="35"/>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E7" s="38"/>
+      <c r="F7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O7" s="35"/>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E8" s="33"/>
+      <c r="F8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O8" s="35"/>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E9" s="33"/>
+      <c r="F9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="35"/>
+    </row>
+    <row r="10" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E10" s="33"/>
+      <c r="F10" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="35"/>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E11" s="41"/>
+      <c r="F11" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="N11" s="78"/>
+      <c r="O11" s="35"/>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E12" s="41"/>
+      <c r="F12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E13" s="33"/>
+      <c r="F13" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O13" s="35"/>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E14" s="33"/>
+      <c r="F14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" s="35"/>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E15" s="33"/>
+      <c r="F15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E16" s="33"/>
+      <c r="F16" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E17" s="33"/>
+      <c r="F17" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E18" s="33"/>
+      <c r="F18" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="35"/>
+    </row>
+    <row r="19" spans="5:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E19" s="36"/>
+      <c r="F19" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="35"/>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E20" s="33"/>
+      <c r="F20" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="N20" s="78"/>
+      <c r="O20" s="35"/>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E21" s="33"/>
+      <c r="F21" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" s="34"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" s="35"/>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E22" s="33"/>
+      <c r="F22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" s="35"/>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E23" s="33"/>
+      <c r="F23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" s="35"/>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E24" s="33"/>
+      <c r="F24" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" s="35"/>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E25" s="33"/>
+      <c r="F25" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" s="35"/>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E26" s="33"/>
+      <c r="F26" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O26" s="35"/>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E27" s="33"/>
+      <c r="F27" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="34"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="N27" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O27" s="35"/>
+    </row>
+    <row r="28" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E28" s="33"/>
+      <c r="F28" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="35"/>
+    </row>
+    <row r="29" spans="5:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E29" s="33"/>
+      <c r="F29" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="35"/>
+    </row>
+    <row r="30" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E30" s="33"/>
+      <c r="F30" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="N30" s="78"/>
+      <c r="O30" s="35"/>
+    </row>
+    <row r="31" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E31" s="33"/>
+      <c r="F31" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" s="34"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O31" s="35"/>
+      <c r="R31" s="47"/>
+    </row>
+    <row r="32" spans="5:18" x14ac:dyDescent="0.45">
+      <c r="E32" s="33"/>
+      <c r="F32" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O32" s="35"/>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E33" s="33"/>
+      <c r="F33" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O33" s="35"/>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E34" s="33"/>
+      <c r="F34" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O34" s="35"/>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E35" s="33"/>
+      <c r="F35" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O35" s="35"/>
+    </row>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E36" s="33"/>
+      <c r="F36" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O36" s="35"/>
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E37" s="33"/>
+      <c r="F37" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="35"/>
+    </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E38" s="33"/>
+      <c r="F38" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="35"/>
+    </row>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E39" s="43"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="45"/>
+    </row>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E40" s="43"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="45"/>
+    </row>
+    <row r="41" spans="5:15" ht="6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
+    </row>
+    <row r="42" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E42" s="88" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="90"/>
+    </row>
+    <row r="43" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E43" s="48"/>
+      <c r="F43" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="J43" s="87"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="N43" s="78"/>
+      <c r="O43" s="49"/>
+    </row>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E44" s="55"/>
+      <c r="F44" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="34"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="N44" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O44" s="49"/>
+    </row>
+    <row r="45" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E45" s="48"/>
+      <c r="F45" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="N45" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O45" s="49"/>
+    </row>
+    <row r="46" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E46" s="37"/>
+      <c r="F46" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K46" s="34"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="N46" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O46" s="49"/>
+    </row>
+    <row r="47" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E47" s="48"/>
+      <c r="F47" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="N47" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O47" s="49"/>
+    </row>
+    <row r="48" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E48" s="48"/>
+      <c r="F48" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="N48" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="O48" s="49"/>
+    </row>
+    <row r="49" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E49" s="48"/>
+      <c r="F49" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="49"/>
+    </row>
+    <row r="50" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E50" s="48"/>
+      <c r="F50" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="34"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="49"/>
+    </row>
+    <row r="51" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E51" s="48"/>
+      <c r="F51" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="34"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="N51" s="22"/>
+      <c r="O51" s="49"/>
+    </row>
+    <row r="52" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E52" s="48"/>
+      <c r="F52" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N52" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O52" s="49"/>
+    </row>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E53" s="48"/>
+      <c r="F53" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K53" s="34"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="N53" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O53" s="49"/>
+    </row>
+    <row r="54" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E54" s="48"/>
+      <c r="F54" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="N54" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O54" s="49"/>
+    </row>
+    <row r="55" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E55" s="48"/>
+      <c r="F55" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="34"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="N55" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="O55" s="49"/>
+    </row>
+    <row r="56" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E56" s="48"/>
+      <c r="F56" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="49"/>
+    </row>
+    <row r="57" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E57" s="48"/>
+      <c r="F57" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="50"/>
+    </row>
+    <row r="58" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E58" s="48"/>
+      <c r="F58" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="J58" s="78"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="50"/>
+    </row>
+    <row r="59" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E59" s="48"/>
+      <c r="F59" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="34"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K59" s="34"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="50"/>
+    </row>
+    <row r="60" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E60" s="48"/>
+      <c r="F60" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="34"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="J60" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K60" s="34"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="50"/>
+    </row>
+    <row r="61" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E61" s="48"/>
+      <c r="F61" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J61" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K61" s="34"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="50"/>
+    </row>
+    <row r="62" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E62" s="48"/>
+      <c r="F62" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J62" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K62" s="34"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="50"/>
+    </row>
+    <row r="63" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E63" s="48"/>
+      <c r="F63" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="J63" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K63" s="34"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="50"/>
+    </row>
+    <row r="64" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E64" s="48"/>
+      <c r="F64" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="50"/>
+    </row>
+    <row r="65" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E65" s="48"/>
+      <c r="F65" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="50"/>
+    </row>
+    <row r="66" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E66" s="48"/>
+      <c r="F66" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="34"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="50"/>
+    </row>
+    <row r="67" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E67" s="51"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="50"/>
+    </row>
+    <row r="68" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E68" s="52"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="54"/>
+    </row>
+    <row r="69" spans="5:15" ht="6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E69" s="92"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="92"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="92"/>
+      <c r="K69" s="92"/>
+      <c r="L69" s="92"/>
+      <c r="M69" s="92"/>
+      <c r="N69" s="92"/>
+      <c r="O69" s="92"/>
+    </row>
+    <row r="70" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E70" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="F70" s="94"/>
+      <c r="G70" s="94"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="94"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="94"/>
+      <c r="M70" s="94"/>
+      <c r="N70" s="94"/>
+      <c r="O70" s="95"/>
+    </row>
+    <row r="71" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E71" s="57"/>
+      <c r="F71" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="J71" s="87"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="86" t="s">
+        <v>290</v>
+      </c>
+      <c r="N71" s="87"/>
+      <c r="O71" s="63"/>
+    </row>
+    <row r="72" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E72" s="66"/>
+      <c r="F72" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G72" s="34"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J72" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K72" s="34"/>
+      <c r="L72" s="71"/>
+      <c r="M72" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="N72" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O72" s="63"/>
+    </row>
+    <row r="73" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E73" s="72"/>
+      <c r="F73" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="J73" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K73" s="34"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="N73" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O73" s="63"/>
+    </row>
+    <row r="74" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E74" s="57"/>
+      <c r="F74" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="J74" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K74" s="34"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="N74" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O74" s="58"/>
+    </row>
+    <row r="75" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E75" s="57"/>
+      <c r="F75" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="J75" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="N75" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O75" s="63"/>
+    </row>
+    <row r="76" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E76" s="57"/>
+      <c r="F76" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="J76" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="34"/>
+      <c r="O76" s="63"/>
+    </row>
+    <row r="77" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E77" s="57"/>
+      <c r="F77" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="J77" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="63"/>
+    </row>
+    <row r="78" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E78" s="57"/>
+      <c r="F78" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G78" s="34"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="J78" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K78" s="34"/>
+      <c r="L78" s="62"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="64"/>
+    </row>
+    <row r="79" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E79" s="57"/>
+      <c r="F79" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G79" s="34"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="J79" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="64"/>
+    </row>
+    <row r="80" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E80" s="57"/>
+      <c r="F80" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="64"/>
+    </row>
+    <row r="81" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E81" s="57"/>
+      <c r="F81" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="64"/>
+    </row>
+    <row r="82" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E82" s="57"/>
+      <c r="F82" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="J82" s="87"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="64"/>
+    </row>
+    <row r="83" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E83" s="57"/>
+      <c r="F83" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G83" s="34"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J83" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K83" s="34"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="64"/>
+    </row>
+    <row r="84" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E84" s="57"/>
+      <c r="F84" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G84" s="34"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="J84" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K84" s="34"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="44"/>
+      <c r="O84" s="64"/>
+    </row>
+    <row r="85" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E85" s="57"/>
+      <c r="F85" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="J85" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K85" s="34"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="64"/>
+    </row>
+    <row r="86" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E86" s="57"/>
+      <c r="F86" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="J86" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K86" s="34"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="64"/>
+    </row>
+    <row r="87" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E87" s="57"/>
+      <c r="F87" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="J87" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K87" s="34"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="64"/>
+    </row>
+    <row r="88" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E88" s="57"/>
+      <c r="F88" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="J88" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K88" s="34"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="64"/>
+    </row>
+    <row r="89" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E89" s="57"/>
+      <c r="F89" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="J89" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K89" s="34"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="64"/>
+    </row>
+    <row r="90" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E90" s="57"/>
+      <c r="F90" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="J90" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K90" s="34"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="44"/>
+      <c r="N90" s="44"/>
+      <c r="O90" s="64"/>
+    </row>
+    <row r="91" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E91" s="57"/>
+      <c r="F91" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J91" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K91" s="34"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="64"/>
+    </row>
+    <row r="92" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E92" s="57"/>
+      <c r="F92" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="J92" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K92" s="34"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="64"/>
+    </row>
+    <row r="93" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E93" s="57"/>
+      <c r="F93" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="J93" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K93" s="34"/>
+      <c r="L93" s="44"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="64"/>
+    </row>
+    <row r="94" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E94" s="57"/>
+      <c r="F94" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="J94" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K94" s="34"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="44"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="64"/>
+    </row>
+    <row r="95" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E95" s="57"/>
+      <c r="F95" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="J95" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K95" s="34"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="64"/>
+    </row>
+    <row r="96" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E96" s="57"/>
+      <c r="F96" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="44"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="64"/>
+    </row>
+    <row r="97" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E97" s="57"/>
+      <c r="F97" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="44"/>
+      <c r="M97" s="44"/>
+      <c r="N97" s="44"/>
+      <c r="O97" s="64"/>
+    </row>
+    <row r="98" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E98" s="57"/>
+      <c r="F98" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G98" s="34"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="44"/>
+      <c r="M98" s="44"/>
+      <c r="N98" s="44"/>
+      <c r="O98" s="64"/>
+    </row>
+    <row r="99" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E99" s="57"/>
+      <c r="F99" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G99" s="34"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="44"/>
+      <c r="N99" s="44"/>
+      <c r="O99" s="64"/>
+    </row>
+    <row r="100" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E100" s="57"/>
+      <c r="F100" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="G100" s="34"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="44"/>
+      <c r="M100" s="44"/>
+      <c r="N100" s="44"/>
+      <c r="O100" s="64"/>
+    </row>
+    <row r="101" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E101" s="57"/>
+      <c r="F101" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G101" s="34"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
+      <c r="K101" s="44"/>
+      <c r="L101" s="44"/>
+      <c r="M101" s="44"/>
+      <c r="N101" s="44"/>
+      <c r="O101" s="64"/>
+    </row>
+    <row r="102" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E102" s="59"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="44"/>
+      <c r="M102" s="44"/>
+      <c r="N102" s="44"/>
+      <c r="O102" s="64"/>
+    </row>
+    <row r="103" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E103" s="60"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="61"/>
+      <c r="J103" s="61"/>
+      <c r="K103" s="61"/>
+      <c r="L103" s="61"/>
+      <c r="M103" s="61"/>
+      <c r="N103" s="61"/>
+      <c r="O103" s="65"/>
+    </row>
+    <row r="104" spans="5:15" ht="6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="H104" s="85"/>
+      <c r="I104" s="85"/>
+      <c r="J104" s="85"/>
+      <c r="K104" s="85"/>
+      <c r="L104" s="85"/>
+      <c r="M104" s="85"/>
+      <c r="N104" s="85"/>
+      <c r="O104" s="85"/>
+    </row>
+    <row r="105" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E105" s="82" t="s">
+        <v>299</v>
+      </c>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="83"/>
+      <c r="I105" s="83"/>
+      <c r="J105" s="83"/>
+      <c r="K105" s="83"/>
+      <c r="L105" s="83"/>
+      <c r="M105" s="83"/>
+      <c r="N105" s="83"/>
+      <c r="O105" s="84"/>
+    </row>
+    <row r="106" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E106" s="57"/>
+      <c r="F106" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="J106" s="78"/>
+      <c r="K106" s="74"/>
+      <c r="L106" s="74"/>
+      <c r="M106" s="74"/>
+      <c r="N106" s="74"/>
+      <c r="O106" s="74"/>
+    </row>
+    <row r="107" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E107" s="73"/>
+      <c r="F107" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" s="34"/>
+      <c r="H107" s="73"/>
+      <c r="I107" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="J107" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K107" s="74"/>
+      <c r="L107" s="74"/>
+      <c r="M107" s="74"/>
+      <c r="N107" s="74"/>
+      <c r="O107" s="74"/>
+    </row>
+    <row r="108" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E108" s="34"/>
+      <c r="F108" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="J108" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K108" s="74"/>
+      <c r="L108" s="74"/>
+      <c r="M108" s="74"/>
+      <c r="N108" s="74"/>
+      <c r="O108" s="74"/>
+    </row>
+    <row r="109" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E109" s="57"/>
+      <c r="F109" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" s="34"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="J109" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K109" s="74"/>
+      <c r="L109" s="74"/>
+      <c r="M109" s="74"/>
+      <c r="N109" s="74"/>
+      <c r="O109" s="74"/>
+    </row>
+    <row r="110" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E110" s="57"/>
+      <c r="F110" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" s="34"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J110" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K110" s="34"/>
+      <c r="L110" s="44"/>
+      <c r="M110" s="74"/>
+      <c r="N110" s="74"/>
+      <c r="O110" s="74"/>
+    </row>
+    <row r="111" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E111" s="57"/>
+      <c r="F111" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="34"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="74"/>
+      <c r="J111" s="74"/>
+      <c r="K111" s="74"/>
+      <c r="L111" s="74"/>
+      <c r="M111" s="74"/>
+      <c r="N111" s="74"/>
+      <c r="O111" s="74"/>
+    </row>
+    <row r="112" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E112" s="57"/>
+      <c r="F112" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="34"/>
+      <c r="H112" s="74"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="74"/>
+      <c r="K112" s="74"/>
+      <c r="L112" s="74"/>
+      <c r="M112" s="74"/>
+      <c r="N112" s="74"/>
+      <c r="O112" s="74"/>
+    </row>
+    <row r="113" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E113" s="57"/>
+      <c r="F113" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="34"/>
+      <c r="H113" s="74"/>
+      <c r="I113" s="74"/>
+      <c r="J113" s="74"/>
+      <c r="K113" s="74"/>
+      <c r="L113" s="74"/>
+      <c r="M113" s="74"/>
+      <c r="N113" s="74"/>
+      <c r="O113" s="74"/>
+    </row>
+    <row r="114" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E114" s="57"/>
+      <c r="F114" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="34"/>
+      <c r="H114" s="74"/>
+      <c r="I114" s="74"/>
+      <c r="J114" s="74"/>
+      <c r="K114" s="74"/>
+      <c r="L114" s="74"/>
+      <c r="M114" s="74"/>
+      <c r="N114" s="74"/>
+      <c r="O114" s="74"/>
+    </row>
+    <row r="115" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E115" s="57"/>
+      <c r="F115" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="34"/>
+      <c r="H115" s="74"/>
+      <c r="I115" s="74"/>
+      <c r="J115" s="74"/>
+      <c r="K115" s="74"/>
+      <c r="L115" s="74"/>
+      <c r="M115" s="74"/>
+      <c r="N115" s="74"/>
+      <c r="O115" s="74"/>
+    </row>
+    <row r="116" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E116" s="57"/>
+      <c r="F116" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="34"/>
+      <c r="H116" s="74"/>
+      <c r="I116" s="74"/>
+      <c r="J116" s="74"/>
+      <c r="K116" s="74"/>
+      <c r="L116" s="74"/>
+      <c r="M116" s="74"/>
+      <c r="N116" s="74"/>
+      <c r="O116" s="74"/>
+    </row>
+    <row r="117" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E117" s="57"/>
+      <c r="F117" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="34"/>
+      <c r="H117" s="74"/>
+      <c r="I117" s="74"/>
+      <c r="J117" s="74"/>
+      <c r="K117" s="74"/>
+      <c r="L117" s="74"/>
+      <c r="M117" s="74"/>
+      <c r="N117" s="74"/>
+      <c r="O117" s="74"/>
+    </row>
+    <row r="118" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E118" s="59"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="74"/>
+      <c r="I118" s="74"/>
+      <c r="J118" s="74"/>
+      <c r="K118" s="74"/>
+      <c r="L118" s="74"/>
+      <c r="M118" s="74"/>
+      <c r="N118" s="74"/>
+      <c r="O118" s="74"/>
+    </row>
+    <row r="119" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E119" s="44"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="44"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="74"/>
+      <c r="K119" s="74"/>
+      <c r="L119" s="74"/>
+      <c r="M119" s="74"/>
+      <c r="N119" s="74"/>
+      <c r="O119" s="74"/>
+    </row>
+    <row r="120" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E120" s="44"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="44"/>
+      <c r="I120" s="44"/>
+    </row>
+    <row r="121" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E121" s="44"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="44"/>
+      <c r="I121" s="44"/>
+    </row>
+    <row r="122" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="44"/>
+      <c r="I122" s="44"/>
+    </row>
+    <row r="123" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E123" s="44"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="44"/>
+      <c r="I123" s="44"/>
+    </row>
+    <row r="124" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E124" s="44"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="44"/>
+      <c r="I124" s="44"/>
+    </row>
+    <row r="125" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E125" s="44"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="44"/>
+      <c r="I125" s="44"/>
+    </row>
+    <row r="126" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E126" s="44"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="44"/>
+      <c r="I126" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="E105:O105"/>
+    <mergeCell ref="E104:O104"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="E42:O42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="E41:O41"/>
+    <mergeCell ref="E69:O69"/>
+    <mergeCell ref="E70:O70"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tablas_LIQ19.xlsx
+++ b/Tablas_LIQ19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32910" windowHeight="15090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32910" windowHeight="15090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas_Anteriores" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="349">
   <si>
     <t>cortescaja</t>
   </si>
@@ -1049,6 +1049,30 @@
   </si>
   <si>
     <t>F_PRELIQUIDACION_FINAL</t>
+  </si>
+  <si>
+    <t>ESTATUS_LIQUIDACION</t>
+  </si>
+  <si>
+    <t>K_ESTATUS_LIQUIDACION</t>
+  </si>
+  <si>
+    <t>D_ESTATUS_LIQUIDACION</t>
+  </si>
+  <si>
+    <t>S_ESTATUS_IQUIDACION</t>
+  </si>
+  <si>
+    <t>O_ESTATUS_LIQUIDACION</t>
+  </si>
+  <si>
+    <t>C_ESTATUS_LIQUIDACION</t>
+  </si>
+  <si>
+    <t>L_ESTATUS_LIQUIDACION</t>
+  </si>
+  <si>
+    <t>****</t>
   </si>
 </sst>
 </file>
@@ -3308,8 +3332,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4483,8 +4507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5373,7 +5397,9 @@
         <v>262</v>
       </c>
       <c r="N43" s="78"/>
-      <c r="O43" s="49"/>
+      <c r="O43" s="49" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="44" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E44" s="55"/>
@@ -5547,7 +5573,9 @@
         <v>267</v>
       </c>
       <c r="N51" s="22"/>
-      <c r="O51" s="49"/>
+      <c r="O51" s="49" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="52" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E52" s="48"/>
@@ -5684,8 +5712,10 @@
       <c r="J58" s="78"/>
       <c r="K58" s="34"/>
       <c r="L58" s="44"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
+      <c r="M58" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="N58" s="78"/>
       <c r="O58" s="50"/>
     </row>
     <row r="59" spans="5:15" x14ac:dyDescent="0.45">
@@ -5703,8 +5733,12 @@
       </c>
       <c r="K59" s="34"/>
       <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="44"/>
+      <c r="M59" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="N59" s="23" t="s">
+        <v>189</v>
+      </c>
       <c r="O59" s="50"/>
     </row>
     <row r="60" spans="5:15" x14ac:dyDescent="0.45">
@@ -5722,8 +5756,12 @@
       </c>
       <c r="K60" s="34"/>
       <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="44"/>
+      <c r="M60" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="N60" s="24" t="s">
+        <v>191</v>
+      </c>
       <c r="O60" s="50"/>
     </row>
     <row r="61" spans="5:15" x14ac:dyDescent="0.45">
@@ -5741,8 +5779,12 @@
       </c>
       <c r="K61" s="34"/>
       <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
-      <c r="N61" s="44"/>
+      <c r="M61" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="N61" s="24" t="s">
+        <v>194</v>
+      </c>
       <c r="O61" s="50"/>
     </row>
     <row r="62" spans="5:15" x14ac:dyDescent="0.45">
@@ -5760,8 +5802,12 @@
       </c>
       <c r="K62" s="34"/>
       <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="44"/>
+      <c r="M62" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="N62" s="24" t="s">
+        <v>189</v>
+      </c>
       <c r="O62" s="50"/>
     </row>
     <row r="63" spans="5:15" x14ac:dyDescent="0.45">
@@ -5779,8 +5825,12 @@
       </c>
       <c r="K63" s="34"/>
       <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="44"/>
+      <c r="M63" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="N63" s="24" t="s">
+        <v>197</v>
+      </c>
       <c r="O63" s="50"/>
     </row>
     <row r="64" spans="5:15" x14ac:dyDescent="0.45">
@@ -5794,8 +5844,12 @@
       <c r="J64" s="34"/>
       <c r="K64" s="34"/>
       <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
+      <c r="M64" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="N64" s="25" t="s">
+        <v>189</v>
+      </c>
       <c r="O64" s="50"/>
     </row>
     <row r="65" spans="5:15" x14ac:dyDescent="0.45">
@@ -6781,10 +6835,11 @@
       <c r="I126" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="I82:J82"/>
     <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M58:N58"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="E105:O105"/>
     <mergeCell ref="E104:O104"/>

--- a/Tablas_LIQ19.xlsx
+++ b/Tablas_LIQ19.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="349">
   <si>
     <t>cortescaja</t>
   </si>
@@ -4507,8 +4507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5953,7 +5953,9 @@
         <v>290</v>
       </c>
       <c r="N71" s="87"/>
-      <c r="O71" s="63"/>
+      <c r="O71" s="63" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="72" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E72" s="66"/>
@@ -6164,7 +6166,9 @@
         <v>276</v>
       </c>
       <c r="J82" s="87"/>
-      <c r="K82" s="34"/>
+      <c r="K82" s="34" t="s">
+        <v>348</v>
+      </c>
       <c r="L82" s="44"/>
       <c r="M82" s="44"/>
       <c r="N82" s="44"/>

--- a/Tablas_LIQ19.xlsx
+++ b/Tablas_LIQ19.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="351">
   <si>
     <t>cortescaja</t>
   </si>
@@ -1073,6 +1073,12 @@
   </si>
   <si>
     <t>****</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>K_pos</t>
   </si>
 </sst>
 </file>
@@ -1843,6 +1849,11 @@
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1853,6 +1864,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1874,12 +1891,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1906,11 +1917,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
@@ -2225,38 +2231,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="E1" s="75" t="s">
+      <c r="C1" s="79"/>
+      <c r="E1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="H1" s="75" t="s">
+      <c r="F1" s="79"/>
+      <c r="H1" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="K1" s="75" t="s">
+      <c r="I1" s="79"/>
+      <c r="K1" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="N1" s="75" t="s">
+      <c r="L1" s="79"/>
+      <c r="N1" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="Q1" s="75" t="s">
+      <c r="O1" s="79"/>
+      <c r="Q1" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="76"/>
-      <c r="T1" s="75" t="s">
+      <c r="R1" s="79"/>
+      <c r="T1" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="76"/>
-      <c r="W1" s="75" t="s">
+      <c r="U1" s="79"/>
+      <c r="W1" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="X1" s="76"/>
+      <c r="X1" s="79"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
@@ -3355,26 +3361,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="E1" s="77" t="s">
+      <c r="C1" s="81"/>
+      <c r="E1" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="H1" s="77" t="s">
+      <c r="F1" s="81"/>
+      <c r="H1" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="K1" s="77" t="s">
+      <c r="I1" s="81"/>
+      <c r="K1" s="80" t="s">
         <v>332</v>
       </c>
-      <c r="L1" s="78"/>
-      <c r="N1" s="77" t="s">
+      <c r="L1" s="81"/>
+      <c r="N1" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="O1" s="78"/>
+      <c r="O1" s="81"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" s="19" t="s">
@@ -3575,15 +3581,15 @@
       <c r="C8" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="97"/>
-      <c r="K8" s="96"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="76"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="13"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="97"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="76"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" s="15" t="s">
@@ -3769,22 +3775,22 @@
     </row>
     <row r="32" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="33" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="C33" s="78"/>
-      <c r="E33" s="77" t="s">
+      <c r="C33" s="81"/>
+      <c r="E33" s="80" t="s">
         <v>258</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="H33" s="77" t="s">
+      <c r="F33" s="81"/>
+      <c r="H33" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="I33" s="78"/>
-      <c r="K33" s="77" t="s">
+      <c r="I33" s="81"/>
+      <c r="K33" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="L33" s="78"/>
+      <c r="L33" s="81"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B34" s="19" t="s">
@@ -3968,18 +3974,18 @@
     </row>
     <row r="47" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="48" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="E48" s="77" t="s">
+      <c r="C48" s="81"/>
+      <c r="E48" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="F48" s="78"/>
-      <c r="H48" s="77" t="s">
+      <c r="F48" s="81"/>
+      <c r="H48" s="80" t="s">
         <v>290</v>
       </c>
-      <c r="I48" s="78"/>
+      <c r="I48" s="81"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B49" s="19" t="s">
@@ -4153,10 +4159,10 @@
     </row>
     <row r="63" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="64" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B64" s="77" t="s">
+      <c r="B64" s="80" t="s">
         <v>292</v>
       </c>
-      <c r="C64" s="78"/>
+      <c r="C64" s="81"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B65" s="19" t="s">
@@ -4191,31 +4197,31 @@
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B69" s="96"/>
-      <c r="C69" s="97"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="76"/>
     </row>
     <row r="71" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="72" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B72" s="77" t="s">
+      <c r="B72" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="C72" s="78"/>
-      <c r="E72" s="77" t="s">
+      <c r="C72" s="81"/>
+      <c r="E72" s="80" t="s">
         <v>311</v>
       </c>
-      <c r="F72" s="78"/>
-      <c r="H72" s="77" t="s">
+      <c r="F72" s="81"/>
+      <c r="H72" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="I72" s="78"/>
-      <c r="K72" s="77" t="s">
+      <c r="I72" s="81"/>
+      <c r="K72" s="80" t="s">
         <v>309</v>
       </c>
-      <c r="L72" s="78"/>
-      <c r="N72" s="77" t="s">
+      <c r="L72" s="81"/>
+      <c r="N72" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="O72" s="78"/>
+      <c r="O72" s="81"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B73" s="19" t="s">
@@ -4423,10 +4429,10 @@
     </row>
     <row r="82" spans="5:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="83" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E83" s="77" t="s">
+      <c r="E83" s="80" t="s">
         <v>325</v>
       </c>
-      <c r="F83" s="78"/>
+      <c r="F83" s="81"/>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E84" s="19" t="s">
@@ -4478,12 +4484,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="E33:F33"/>
@@ -4492,11 +4497,12 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="H48:I48"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4507,8 +4513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="Q64" sqref="Q64"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4530,19 +4536,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:15" x14ac:dyDescent="0.45">
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="81"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="86"/>
     </row>
     <row r="2" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E2" s="33"/>
@@ -4551,16 +4557,16 @@
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="87"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="N2" s="87"/>
+      <c r="N2" s="83"/>
       <c r="O2" s="35"/>
     </row>
     <row r="3" spans="5:15" x14ac:dyDescent="0.45">
@@ -4754,10 +4760,10 @@
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="77" t="s">
+      <c r="M11" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="N11" s="78"/>
+      <c r="N11" s="81"/>
       <c r="O11" s="35"/>
     </row>
     <row r="12" spans="5:15" x14ac:dyDescent="0.45">
@@ -4791,7 +4797,7 @@
       <c r="G13" s="34"/>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>202</v>
+        <v>350</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>189</v>
@@ -4951,10 +4957,10 @@
       </c>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
-      <c r="M20" s="77" t="s">
-        <v>332</v>
-      </c>
-      <c r="N20" s="78"/>
+      <c r="M20" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="N20" s="81"/>
       <c r="O20" s="35"/>
     </row>
     <row r="21" spans="5:18" x14ac:dyDescent="0.45">
@@ -5171,10 +5177,10 @@
       </c>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
-      <c r="M30" s="77" t="s">
+      <c r="M30" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="N30" s="78"/>
+      <c r="N30" s="81"/>
       <c r="O30" s="35"/>
     </row>
     <row r="31" spans="5:18" x14ac:dyDescent="0.45">
@@ -5353,32 +5359,32 @@
       <c r="O40" s="45"/>
     </row>
     <row r="41" spans="5:15" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
     </row>
     <row r="42" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E42" s="88" t="s">
+      <c r="E42" s="91" t="s">
         <v>297</v>
       </c>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="90"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="92"/>
+      <c r="N42" s="92"/>
+      <c r="O42" s="93"/>
     </row>
     <row r="43" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E43" s="48"/>
@@ -5387,16 +5393,16 @@
       </c>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="86" t="s">
+      <c r="I43" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="J43" s="87"/>
+      <c r="J43" s="83"/>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
-      <c r="M43" s="77" t="s">
+      <c r="M43" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="N43" s="78"/>
+      <c r="N43" s="81"/>
       <c r="O43" s="49" t="s">
         <v>348</v>
       </c>
@@ -5706,16 +5712,16 @@
       </c>
       <c r="G58" s="34"/>
       <c r="H58" s="34"/>
-      <c r="I58" s="77" t="s">
+      <c r="I58" s="80" t="s">
         <v>258</v>
       </c>
-      <c r="J58" s="78"/>
+      <c r="J58" s="81"/>
       <c r="K58" s="34"/>
       <c r="L58" s="44"/>
-      <c r="M58" s="77" t="s">
+      <c r="M58" s="80" t="s">
         <v>341</v>
       </c>
-      <c r="N58" s="78"/>
+      <c r="N58" s="81"/>
       <c r="O58" s="50"/>
     </row>
     <row r="59" spans="5:15" x14ac:dyDescent="0.45">
@@ -5909,32 +5915,32 @@
       <c r="O68" s="54"/>
     </row>
     <row r="69" spans="5:15" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="92"/>
-      <c r="H69" s="92"/>
-      <c r="I69" s="92"/>
-      <c r="J69" s="92"/>
-      <c r="K69" s="92"/>
-      <c r="L69" s="92"/>
-      <c r="M69" s="92"/>
-      <c r="N69" s="92"/>
-      <c r="O69" s="92"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="95"/>
+      <c r="I69" s="95"/>
+      <c r="J69" s="95"/>
+      <c r="K69" s="95"/>
+      <c r="L69" s="95"/>
+      <c r="M69" s="95"/>
+      <c r="N69" s="95"/>
+      <c r="O69" s="95"/>
     </row>
     <row r="70" spans="5:15" x14ac:dyDescent="0.45">
-      <c r="E70" s="93" t="s">
+      <c r="E70" s="96" t="s">
         <v>269</v>
       </c>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="94"/>
-      <c r="J70" s="94"/>
-      <c r="K70" s="94"/>
-      <c r="L70" s="94"/>
-      <c r="M70" s="94"/>
-      <c r="N70" s="94"/>
-      <c r="O70" s="95"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="97"/>
+      <c r="I70" s="97"/>
+      <c r="J70" s="97"/>
+      <c r="K70" s="97"/>
+      <c r="L70" s="97"/>
+      <c r="M70" s="97"/>
+      <c r="N70" s="97"/>
+      <c r="O70" s="98"/>
     </row>
     <row r="71" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E71" s="57"/>
@@ -5943,16 +5949,16 @@
       </c>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
-      <c r="I71" s="86" t="s">
+      <c r="I71" s="82" t="s">
         <v>269</v>
       </c>
-      <c r="J71" s="87"/>
+      <c r="J71" s="83"/>
       <c r="K71" s="34"/>
       <c r="L71" s="34"/>
-      <c r="M71" s="86" t="s">
+      <c r="M71" s="82" t="s">
         <v>290</v>
       </c>
-      <c r="N71" s="87"/>
+      <c r="N71" s="83"/>
       <c r="O71" s="63" t="s">
         <v>348</v>
       </c>
@@ -6162,10 +6168,10 @@
       </c>
       <c r="G82" s="34"/>
       <c r="H82" s="34"/>
-      <c r="I82" s="86" t="s">
+      <c r="I82" s="82" t="s">
         <v>276</v>
       </c>
-      <c r="J82" s="87"/>
+      <c r="J82" s="83"/>
       <c r="K82" s="34" t="s">
         <v>348</v>
       </c>
@@ -6538,32 +6544,32 @@
       <c r="O103" s="65"/>
     </row>
     <row r="104" spans="5:15" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="H104" s="85"/>
-      <c r="I104" s="85"/>
-      <c r="J104" s="85"/>
-      <c r="K104" s="85"/>
-      <c r="L104" s="85"/>
-      <c r="M104" s="85"/>
-      <c r="N104" s="85"/>
-      <c r="O104" s="85"/>
+      <c r="E104" s="90"/>
+      <c r="F104" s="90"/>
+      <c r="G104" s="90"/>
+      <c r="H104" s="90"/>
+      <c r="I104" s="90"/>
+      <c r="J104" s="90"/>
+      <c r="K104" s="90"/>
+      <c r="L104" s="90"/>
+      <c r="M104" s="90"/>
+      <c r="N104" s="90"/>
+      <c r="O104" s="90"/>
     </row>
     <row r="105" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E105" s="82" t="s">
+      <c r="E105" s="87" t="s">
         <v>299</v>
       </c>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="83"/>
-      <c r="I105" s="83"/>
-      <c r="J105" s="83"/>
-      <c r="K105" s="83"/>
-      <c r="L105" s="83"/>
-      <c r="M105" s="83"/>
-      <c r="N105" s="83"/>
-      <c r="O105" s="84"/>
+      <c r="F105" s="88"/>
+      <c r="G105" s="88"/>
+      <c r="H105" s="88"/>
+      <c r="I105" s="88"/>
+      <c r="J105" s="88"/>
+      <c r="K105" s="88"/>
+      <c r="L105" s="88"/>
+      <c r="M105" s="88"/>
+      <c r="N105" s="88"/>
+      <c r="O105" s="89"/>
     </row>
     <row r="106" spans="5:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E106" s="57"/>
@@ -6572,10 +6578,10 @@
       </c>
       <c r="G106" s="34"/>
       <c r="H106" s="34"/>
-      <c r="I106" s="77" t="s">
+      <c r="I106" s="80" t="s">
         <v>292</v>
       </c>
-      <c r="J106" s="78"/>
+      <c r="J106" s="81"/>
       <c r="K106" s="74"/>
       <c r="L106" s="74"/>
       <c r="M106" s="74"/>
@@ -6840,11 +6846,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="E1:O1"/>
     <mergeCell ref="E105:O105"/>
     <mergeCell ref="E104:O104"/>
     <mergeCell ref="I106:J106"/>
@@ -6860,6 +6861,11 @@
     <mergeCell ref="E41:O41"/>
     <mergeCell ref="E69:O69"/>
     <mergeCell ref="E70:O70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="E1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
